--- a/event_flow.xlsx
+++ b/event_flow.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meguk_auvkqgd\OneDrive\ドキュメント\Web_development\entry_socket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C064C49-F7AB-402B-A1D3-A757E4E8306A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D85A9-929B-47AA-B28E-A047B49ACFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1470" windowWidth="15990" windowHeight="15540" xr2:uid="{D0B37B0C-6794-4512-88E4-E8EE3997FDF0}"/>
+    <workbookView xWindow="9900" yWindow="705" windowWidth="14850" windowHeight="15150" xr2:uid="{D0B37B0C-6794-4512-88E4-E8EE3997FDF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="event" sheetId="1" r:id="rId1"/>
+    <sheet name="castとplayer" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>参加受付中</t>
     <rPh sb="0" eb="5">
@@ -46,18 +46,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>各P</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>message</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -86,19 +75,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>***さんは市民、人狼、相方は、ランシロ</t>
-    <rPh sb="6" eb="8">
-      <t>シミン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジンロウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>アイカタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>追放</t>
     <rPh sb="0" eb="2">
       <t>ツイホウ</t>
@@ -114,9 +90,6 @@
   </si>
   <si>
     <t>結果判定</t>
-  </si>
-  <si>
-    <t>結果判定</t>
     <rPh sb="0" eb="4">
       <t>ケッカハンテイ</t>
     </rPh>
@@ -124,13 +97,6 @@
   </si>
   <si>
     <t>夜</t>
-    <rPh sb="0" eb="1">
-      <t>ヨル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>夜へ</t>
     <rPh sb="0" eb="1">
       <t>ヨル</t>
     </rPh>
@@ -175,170 +141,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（人狼向け）了解しました
-（占い師向け）</t>
-    <rPh sb="1" eb="3">
-      <t>ジンロウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウカイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウラナ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バグ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・占い、襲撃ボタンをおしたらほかのボタンはdisableにしたい</t>
-    <rPh sb="1" eb="2">
-      <t>ウラナ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・占い師が最後にボタンを押すと占い結果が出ずに夜が明けてしまう
-・次のフェーズは昼でなく朝</t>
-    <rPh sb="1" eb="2">
-      <t>ウラナ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウラナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>アサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>夜が明けました</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>追放
-結果判定</t>
-    <rPh sb="0" eb="2">
-      <t>ツイホウ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ケッカハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GMボタンで追放と結果判定が両方アクティブだが、追放押してフェーズ変更、結果判定アクティブの順にすべき</t>
-    <rPh sb="6" eb="8">
-      <t>ツイホウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ケッカハンテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ツイホウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>ケッカハンテイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>夜が明けました
-昨晩襲撃されたのは***さんです。
-または、
-人狼/市民の勝利です</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>サクバンシュウゲキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジンロウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シミン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ショウリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>恐ろしい夜がやってまいりました
-または、
-人狼/市民の勝利です</t>
-    <rPh sb="0" eb="1">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>server</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -387,10 +189,6 @@
   </si>
   <si>
     <t>emit each</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>emipP</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -575,6 +373,328 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>シュウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>castとplayerはインデックスで紐づける</t>
+    <rPh sb="19" eb="20">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方針</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始準備</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（簡単にするために、playerとcastの数は同じでまずは考える）</t>
+    <rPh sb="1" eb="3">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼は相方を知る</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アイカタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>占い師はランシロ先を知る</t>
+    <rPh sb="0" eb="1">
+      <t>ウラナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　whites (color=='white'のcastインデックスで構成されたリスト）からランダムに１インデックスを取り出す</t>
+    <rPh sb="35" eb="37">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　人狼それぞれが相方人狼リスト(name=='人狼'のcastインデックスで構成されたリスト）を持つ。</t>
+    <rPh sb="1" eb="3">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アイカタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>casts=['市民', '人狼','占い師','市民','市民', '人狼']</t>
+    <rPh sb="8" eb="10">
+      <t>シミン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウラナ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>casts[0].opencasts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>casts[1].opencasts</t>
+  </si>
+  <si>
+    <t>casts[2].opencasts</t>
+  </si>
+  <si>
+    <t>casts[3].opencasts</t>
+  </si>
+  <si>
+    <t>casts[4].opencasts</t>
+  </si>
+  <si>
+    <t>casts[5].opencasts</t>
+  </si>
+  <si>
+    <t>index=0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>index=1</t>
+  </si>
+  <si>
+    <t>index=2</t>
+  </si>
+  <si>
+    <t>index=3</t>
+  </si>
+  <si>
+    <t>index=4</t>
+  </si>
+  <si>
+    <t>index=5</t>
+  </si>
+  <si>
+    <t>例)</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各castは自分を含めて自分が把握しているcastのリストを持つ(opencasts)</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>castsの順をシャッフル</t>
+    <rPh sb="6" eb="7">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（playerとcastは同一indexなので、シャッフルした時点で両者は紐づけられることになる）</t>
+    <rPh sb="13" eb="15">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>リョウシャ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各playerの属性にcast.opencastsを加える</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>市民</t>
+    <rPh sb="0" eb="2">
+      <t>シミン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>占い師</t>
+    <rPh sb="0" eb="1">
+      <t>ウラナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼ではない</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emit狼01</t>
+    <rPh sb="4" eb="5">
+      <t>オオカミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emit狼02</t>
+    <rPh sb="4" eb="5">
+      <t>オオカミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emit to 01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emit to 02</t>
+  </si>
+  <si>
+    <t>action(10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>action(11)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「01のtargetは10」を狼01,02にemit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「02のtargetは11」を狼01,02にemit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>了解しました,</t>
+    <rPh sb="0" eb="2">
+      <t>リョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>了解しました</t>
+    <rPh sb="0" eb="2">
+      <t>リョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01,02…すべての狼のtargetが同じになるまで</t>
+    <rPh sb="10" eb="11">
+      <t>オオカミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>actionを受付</t>
+    <rPh sb="7" eb="9">
+      <t>ウケツケ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -665,12 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,6 +805,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,68 +1559,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7FE917-8B75-4FF6-8E4C-505D8FF003AF}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="35.75" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>32</v>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="D3" s="4" t="s">
-        <v>34</v>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -1509,85 +1629,85 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="D5" s="9" t="s">
-        <v>50</v>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="D7" s="9" t="s">
-        <v>68</v>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="D10" s="9" t="s">
-        <v>74</v>
+      <c r="D10" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -1596,188 +1716,258 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="56.25">
-      <c r="D13" s="9" t="s">
-        <v>61</v>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="D15" s="9" t="s">
-        <v>51</v>
+      <c r="D15" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="37.5">
       <c r="C17"/>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="D18" s="9" t="s">
-        <v>47</v>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="56.25">
-      <c r="D20" s="9" t="s">
-        <v>52</v>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" ht="37.5">
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" ht="37.5">
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" ht="37.5">
-      <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" ht="37.5">
-      <c r="D23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="D24" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="D33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="D36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="G39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="G40" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1789,247 +1979,236 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4130EB2-83EF-49DF-86D4-3ED9BC13F942}">
-  <dimension ref="B1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36162D38-6E24-495A-A205-554711528071}">
+  <dimension ref="B4:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K9" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.125" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="56.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="56.25">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="56.25">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="56.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="9"/>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="D8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="D9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="D10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="D11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="D12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="D13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="56.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="56.25">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="37.5">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="75">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="56.25">
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/event_flow.xlsx
+++ b/event_flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meguk_auvkqgd\OneDrive\ドキュメント\Web_development\entry_socket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874D85A9-929B-47AA-B28E-A047B49ACFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C377765-8586-4E25-A901-E7CC26FF9393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="705" windowWidth="14850" windowHeight="15150" xr2:uid="{D0B37B0C-6794-4512-88E4-E8EE3997FDF0}"/>
+    <workbookView xWindow="-18285" yWindow="480" windowWidth="10575" windowHeight="15765" xr2:uid="{D0B37B0C-6794-4512-88E4-E8EE3997FDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
     <t>参加受付中</t>
     <rPh sb="0" eb="5">
@@ -180,10 +180,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>emitG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>emit all</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -227,9 +223,6 @@
   </si>
   <si>
     <t>vote</t>
-  </si>
-  <si>
-    <t>request action from gm</t>
   </si>
   <si>
     <t>do action</t>
@@ -697,6 +690,45 @@
       <t>ウケツケ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>朝</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emit to GM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>朝へ</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>toMorning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>request action from gm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜のアクションが終了しました。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>next game</t>
   </si>
 </sst>
 </file>
@@ -841,7 +873,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -942,13 +974,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>828674</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>95246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1055,7 +1087,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>171447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1154,16 +1186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242356</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1177,9 +1209,223 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5876925" y="819150"/>
-          <a:ext cx="466725" cy="5924550"/>
+        <a:xfrm>
+          <a:off x="242356" y="1809751"/>
+          <a:ext cx="625477" cy="6764866"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 333375 w 333375"/>
+            <a:gd name="connsiteY0" fmla="*/ 4295775 h 4295775"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 333375"/>
+            <a:gd name="connsiteY1" fmla="*/ 4295775 h 4295775"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 333375"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 4295775"/>
+            <a:gd name="connsiteX3" fmla="*/ 304800 w 333375"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 4295775"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="333375" h="4295775">
+              <a:moveTo>
+                <a:pt x="333375" y="4295775"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4295775"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="304800" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>246590</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4234</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フリーフォーム: 図形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0FDEB1-B59E-4E22-8934-80D48CADDF05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="246590" y="1344084"/>
+          <a:ext cx="625477" cy="7217833"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 333375 w 333375"/>
+            <a:gd name="connsiteY0" fmla="*/ 4295775 h 4295775"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 333375"/>
+            <a:gd name="connsiteY1" fmla="*/ 4295775 h 4295775"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 333375"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 4295775"/>
+            <a:gd name="connsiteX3" fmla="*/ 304800 w 333375"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 4295775"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="333375" h="4295775">
+              <a:moveTo>
+                <a:pt x="333375" y="4295775"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="4295775"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="304800" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>240241</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>865718</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フリーフォーム: 図形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8BBAE0-2E01-45AC-8DF5-2EF610C956EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240241" y="2815167"/>
+          <a:ext cx="625477" cy="5746750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1559,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7FE917-8B75-4FF6-8E4C-505D8FF003AF}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1579,13 +1825,13 @@
     <row r="1" spans="1:10" s="4" customFormat="1">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
@@ -1608,7 +1854,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1620,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -1635,16 +1881,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10">
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -1653,61 +1899,61 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:10">
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10">
       <c r="D10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -1716,49 +1962,49 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="56.25">
       <c r="D13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:10">
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -1767,65 +2013,65 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="37.5">
       <c r="C17"/>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8">
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="56.25">
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1843,131 +2089,162 @@
         <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" ht="37.5">
       <c r="D22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="D23" s="7"/>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" ht="37.5">
+      <c r="D25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="D26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" ht="37.5">
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="D24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" t="s">
+      <c r="D28" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="D29" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="D35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
         <v>91</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="D33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="D37" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="D38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="G41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="G42" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="D36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="E37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="G39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="G40" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1990,52 +2267,52 @@
   <sheetData>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="9"/>
       <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>78</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="D8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -2055,13 +2332,13 @@
     </row>
     <row r="9" spans="2:10">
       <c r="D9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -2073,21 +2350,21 @@
         <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="D10" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -2101,7 +2378,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="D11" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
@@ -2113,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" s="9">
         <v>0</v>
@@ -2124,7 +2401,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="D12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -2139,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" s="9">
         <v>0</v>
@@ -2147,13 +2424,13 @@
     </row>
     <row r="13" spans="2:10">
       <c r="D13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -2165,50 +2442,50 @@
         <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/event_flow.xlsx
+++ b/event_flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meguk_auvkqgd\OneDrive\ドキュメント\Web_development\entry_socket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C377765-8586-4E25-A901-E7CC26FF9393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98B9AC-E21C-4574-B07A-DB0216BB1558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18285" yWindow="480" windowWidth="10575" windowHeight="15765" xr2:uid="{D0B37B0C-6794-4512-88E4-E8EE3997FDF0}"/>
+    <workbookView xWindow="6465" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{D0B37B0C-6794-4512-88E4-E8EE3997FDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t>参加受付中</t>
     <rPh sb="0" eb="5">
@@ -729,6 +729,21 @@
   </si>
   <si>
     <t>next game</t>
+  </si>
+  <si>
+    <t>+','-'</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>countup, countdown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>change cast</t>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -761,22 +776,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF96D0FF"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -810,15 +823,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -826,22 +836,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,13 +886,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -974,13 +993,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>828674</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1081,13 +1100,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1188,13 +1207,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>242356</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1295,13 +1314,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>246590</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4234</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1402,13 +1421,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>240241</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>137584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>865718</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1805,50 +1824,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7FE917-8B75-4FF6-8E4C-505D8FF003AF}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="35.75" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1856,13 +1875,13 @@
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
@@ -1880,13 +1899,13 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
@@ -1901,90 +1920,87 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>50</v>
+      <c r="C6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="D7" s="7" t="s">
-        <v>51</v>
+      <c r="D7" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="1" t="s">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="D10" s="7" t="s">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="56.25">
-      <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="13" spans="1:10">
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10">
@@ -1992,22 +2008,25 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="D15" s="7" t="s">
-        <v>35</v>
+    <row r="15" spans="1:10" ht="56.25">
+      <c r="D15" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -2016,234 +2035,258 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" ht="37.5">
-      <c r="C17"/>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
+    <row r="17" spans="2:8">
+      <c r="D17" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" ht="37.5">
+      <c r="C19"/>
+      <c r="D19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="D18" s="7" t="s">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="D20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" ht="56.25">
-      <c r="D20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" ht="37.5">
-      <c r="D22" s="7" t="s">
-        <v>36</v>
+    <row r="22" spans="2:8" ht="56.25">
+      <c r="D22" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
       <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" ht="37.5">
+      <c r="D24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="D23" s="7"/>
-      <c r="E23" t="s">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="D25" s="12"/>
+      <c r="E25" t="s">
         <v>102</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" t="s">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" ht="37.5">
-      <c r="D25" s="7" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" ht="37.5">
+      <c r="D27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="D26" s="7" t="s">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="D28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" t="s">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D30" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
-      <c r="D29" s="7" t="s">
+    <row r="31" spans="2:8">
+      <c r="D31" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D36" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="D35" s="7" t="s">
+    <row r="37" spans="2:7">
+      <c r="D37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
-      <c r="E36" t="s">
+    <row r="38" spans="2:7">
+      <c r="E38" t="s">
         <v>92</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37" t="s">
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
         <v>90</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D39" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
-      <c r="D38" s="7" t="s">
+    <row r="40" spans="2:7">
+      <c r="D40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
-      <c r="E39" t="s">
+    <row r="41" spans="2:7">
+      <c r="E41" t="s">
         <v>92</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
-      <c r="G41" t="s">
+    <row r="43" spans="2:7">
+      <c r="G43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
-      <c r="G42" t="s">
+    <row r="44" spans="2:7">
+      <c r="G44" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2279,7 +2322,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C6" t="s">
@@ -2287,7 +2330,7 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="9"/>
+      <c r="B7" s="5"/>
       <c r="E7" t="s">
         <v>74</v>
       </c>
@@ -2308,140 +2351,140 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/event_flow.xlsx
+++ b/event_flow.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meguk_auvkqgd\OneDrive\ドキュメント\Web_development\entry_socket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98B9AC-E21C-4574-B07A-DB0216BB1558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56316D52-3B51-4C88-8977-AA19397BEFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{D0B37B0C-6794-4512-88E4-E8EE3997FDF0}"/>
+    <workbookView xWindow="4815" yWindow="765" windowWidth="16785" windowHeight="14235" activeTab="2" xr2:uid="{D0B37B0C-6794-4512-88E4-E8EE3997FDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
     <sheet name="castとplayer" sheetId="3" r:id="rId2"/>
+    <sheet name="リロード処理" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
   <si>
     <t>参加受付中</t>
     <rPh sb="0" eb="5">
@@ -145,19 +146,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>cast_msg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>msg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>cast</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>target_indices</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -743,6 +732,227 @@
   </si>
   <si>
     <t>menu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者以外の人がアクセスしたときのメッセージ</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次のゲームまでお待ちください</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A（notGM)さんがリロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他の人の画面</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aさんのリロード後の画面</t>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フェーズ：参加受付中</t>
+    <rPh sb="5" eb="10">
+      <t>サンカウケツケチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フェーズ：それ以外</t>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加ボタン消灯状態で閉じる</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加ボタン点灯状態で閉じる</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（画面無し）</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aさんが消灯のまま変化なし</t>
+    <rPh sb="4" eb="6">
+      <t>ショウトウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>閉じる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aさん点灯状態を維持</t>
+    <rPh sb="3" eb="5">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aさん消灯状態を維持</t>
+    <rPh sb="3" eb="5">
+      <t>ショウトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aさんが点灯から消灯へ</t>
+    <rPh sb="4" eb="6">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Aさんが消灯から点灯へ</t>
+    <rPh sb="4" eb="6">
+      <t>ショウトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>続行不能なのでしばらく待ってGMがリセット</t>
+    <rPh sb="0" eb="2">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>閉じる前の状態の復帰</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>閉じる前の状態に復帰</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フッキ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -823,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,11 +1073,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1527,6 +1753,30 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5809A528-9D60-4AC4-AC5E-850803F40ED3}" name="テーブル1" displayName="テーブル1" ref="B6:D10" totalsRowShown="0">
+  <autoFilter ref="B6:D10" xr:uid="{5809A528-9D60-4AC4-AC5E-850803F40ED3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{371FC916-7DA2-4DD1-8BA1-B9B89270112E}" name="列1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8241DB48-E032-431B-A383-12BBBAB7F7D0}" name="Aさんのリロード後の画面"/>
+    <tableColumn id="3" xr3:uid="{E24A151E-3EC8-4208-A6C8-C16B233686D9}" name="他の人の画面" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{268C3254-4000-42DB-AF78-5E5BAE57DB41}" name="テーブル2" displayName="テーブル2" ref="B14:D16" totalsRowShown="0">
+  <autoFilter ref="B14:D16" xr:uid="{268C3254-4000-42DB-AF78-5E5BAE57DB41}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6D1AE5A6-D002-48E6-9BFD-0F026285D5B4}" name="列1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DF4623AC-C7EC-469E-B740-0723B0EC03C2}" name="Aさんのリロード後の画面"/>
+    <tableColumn id="3" xr3:uid="{89810574-B133-4228-A5E1-25F7F0D0D680}" name="他の人の画面" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1824,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7FE917-8B75-4FF6-8E4C-505D8FF003AF}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1838,19 +2088,20 @@
     <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="35.75" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="8" max="8" width="30" style="13" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="37.5">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
@@ -1859,195 +2110,191 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="D3" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="D5" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>111</v>
-      </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" s="12" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="D12" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:8">
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="56.25">
+    <row r="15" spans="1:8" ht="56.25">
       <c r="D15" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8">
       <c r="D17" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -2056,65 +2303,65 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" ht="37.5">
       <c r="C19"/>
       <c r="D19" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
       <c r="D20" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" ht="56.25">
       <c r="D22" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -2126,168 +2373,168 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" ht="37.5">
       <c r="D24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8">
       <c r="D25" s="12"/>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" ht="37.5">
       <c r="D27" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8">
       <c r="D28" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="D31" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="D37" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
         <v>92</v>
-      </c>
-      <c r="G38" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="D40" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="E41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="G43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="G44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2303,59 +2550,59 @@
   <dimension ref="B4:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="5"/>
       <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>75</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>76</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -2375,13 +2622,13 @@
     </row>
     <row r="9" spans="2:10">
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -2393,21 +2640,21 @@
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
@@ -2421,7 +2668,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -2433,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -2444,7 +2691,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -2459,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
@@ -2467,13 +2714,13 @@
     </row>
     <row r="13" spans="2:10">
       <c r="D13" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -2485,50 +2732,50 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="C16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2536,4 +2783,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD40493E-E916-407E-B164-D375B618748B}">
+  <dimension ref="B3:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="37.5">
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="37.5">
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="37.5">
+      <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>